--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,16 +46,22 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>smaller</t>
@@ -64,31 +70,22 @@
     <t>waste</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>paint</t>
   </si>
   <si>
     <t>apart</t>
@@ -100,55 +97,70 @@
     <t>difficult</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>money</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>used</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>used</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>2</t>
@@ -157,27 +169,27 @@
     <t>use</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -187,6 +199,9 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -205,16 +220,19 @@
     <t>love</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>loves</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>learn</t>
   </si>
   <si>
     <t>friends</t>
@@ -587,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K5">
-        <v>0.6881720430107527</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>0.6226415094339622</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7475728155339806</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C7">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D7">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.53125</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7473118279569892</v>
+        <v>0.703125</v>
       </c>
       <c r="C8">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K8">
-        <v>0.5217391304347826</v>
+        <v>0.515625</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6554621848739496</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.3663934426229508</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L9">
-        <v>447</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>447</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>773</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6418918918918919</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C10">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.3649425287356322</v>
+        <v>0.369672131147541</v>
       </c>
       <c r="L10">
-        <v>254</v>
+        <v>451</v>
       </c>
       <c r="M10">
-        <v>255</v>
+        <v>451</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>442</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.2916666666666667</v>
+        <v>0.3443328550932568</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>85</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5952380952380952</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.2863070539419087</v>
+        <v>0.2987551867219917</v>
       </c>
       <c r="L12">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M12">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5833333333333334</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.2293577981651376</v>
+        <v>0.275</v>
       </c>
       <c r="L13">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>252</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,37 +1224,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5789473684210527</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>22</v>
       </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K14">
-        <v>0.2108433734939759</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5740740740740741</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1274,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>0.1957671957671958</v>
+        <v>0.2140672782874618</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>152</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5101449275362319</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="C16">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D16">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1324,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.1244979919678715</v>
+        <v>0.1953125</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1348,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>218</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,37 +1374,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5060240963855421</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C17">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>41</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>42</v>
       </c>
-      <c r="D17">
-        <v>42</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>41</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.1042944785276074</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L17">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1398,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1022</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1406,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,31 +1442,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.05263157894736842</v>
+        <v>0.1365461847389558</v>
       </c>
       <c r="L18">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1458</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1456,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4888888888888889</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1474,7 +1492,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>51</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19">
+        <v>0.09640666082383874</v>
+      </c>
+      <c r="L19">
+        <v>110</v>
+      </c>
+      <c r="M19">
+        <v>110</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1031</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4526315789473684</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1500,7 +1542,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>73</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20">
+        <v>0.05259740259740259</v>
+      </c>
+      <c r="L20">
+        <v>81</v>
+      </c>
+      <c r="M20">
+        <v>82</v>
+      </c>
+      <c r="N20">
+        <v>0.99</v>
+      </c>
+      <c r="O20">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1459</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1508,13 +1574,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4330708661417323</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1526,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1534,25 +1600,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4044943820224719</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>36</v>
-      </c>
-      <c r="D22">
-        <v>36</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1560,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3554502369668247</v>
+        <v>0.3910891089108911</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1578,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1586,13 +1652,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.34375</v>
+        <v>0.3515625</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1604,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1612,13 +1678,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3118811881188119</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1630,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>139</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1638,13 +1704,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2991452991452991</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1656,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1664,13 +1730,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2653061224489796</v>
+        <v>0.3222748815165877</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1682,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>72</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1690,13 +1756,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2628865979381443</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C28">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1708,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>143</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1742,13 +1808,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2101910828025478</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1760,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1768,13 +1834,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2062314540059347</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="C31">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="D31">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1786,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>535</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1820,13 +1886,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.205607476635514</v>
+        <v>0.198813056379822</v>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D33">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1838,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>170</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1846,13 +1912,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2028985507246377</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1864,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>220</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1872,13 +1938,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.165</v>
+        <v>0.1781609195402299</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1890,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>167</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1898,13 +1964,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1563876651982379</v>
+        <v>0.1696035242290749</v>
       </c>
       <c r="C36">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1916,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1924,25 +1990,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1498559077809798</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="C37">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E37">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>295</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1950,25 +2016,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1417004048582996</v>
+        <v>0.16</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E38">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1976,13 +2042,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1257142857142857</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1994,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2002,13 +2068,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1123595505617977</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2020,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>237</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2028,25 +2094,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.07692307692307693</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E41">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>336</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2054,13 +2120,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.07605633802816901</v>
+        <v>0.125</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2072,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>328</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2080,25 +2146,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.07248764415156507</v>
+        <v>0.1229946524064171</v>
       </c>
       <c r="C43">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>563</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2106,25 +2172,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.07242990654205607</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E44">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>397</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2132,25 +2198,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.05803571428571429</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E45">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>422</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2158,25 +2224,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.05152224824355972</v>
+        <v>0.07907742998352553</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E46">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="F46">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>405</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2184,25 +2250,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03969465648854962</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>629</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2210,25 +2276,129 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03802281368821293</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D48">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="F48">
-        <v>0.86</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>759</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.06478873239436619</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.0630841121495327</v>
+      </c>
+      <c r="C50">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>28</v>
+      </c>
+      <c r="E50">
+        <v>0.04</v>
+      </c>
+      <c r="F50">
+        <v>0.96</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.04562737642585551</v>
+      </c>
+      <c r="C51">
+        <v>36</v>
+      </c>
+      <c r="D51">
+        <v>41</v>
+      </c>
+      <c r="E51">
+        <v>0.12</v>
+      </c>
+      <c r="F51">
+        <v>0.88</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.04294478527607362</v>
+      </c>
+      <c r="C52">
+        <v>28</v>
+      </c>
+      <c r="D52">
+        <v>31</v>
+      </c>
+      <c r="E52">
+        <v>0.1</v>
+      </c>
+      <c r="F52">
+        <v>0.9</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
